--- a/uploads/rules.xlsx
+++ b/uploads/rules.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,11 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/rules.xlsx
+++ b/uploads/rules.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Speacial Weekend</t>
+          <t>Special Weekend</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,185 +456,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45658</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" s="2" t="n">
-        <v>45773</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-04-26 00:00</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45777</v>
+        <v>45778</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45778</v>
+        <v>45902</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45902</v>
+        <v>45754</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45754</v>
+        <v>45682</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45682</v>
+        <v>45683</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45683</v>
+        <v>45684</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45688</v>
+        <v>45689</v>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45689</v>
+        <v>45690</v>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45690</v>
+        <v>45779</v>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45779</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/rules.xlsx
+++ b/uploads/rules.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,21 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/rules.xlsx
+++ b/uploads/rules.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,16 +561,6 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
